--- a/员工表.xlsx
+++ b/员工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C37F537-A119-4239-B7AC-7DDD47BAD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD69A13-7171-4580-AC1C-0AF3C7823867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14565" yWindow="-4635" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工体征表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
   </si>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>王磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,28 +432,37 @@
     <col min="1" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/员工表.xlsx
+++ b/员工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD69A13-7171-4580-AC1C-0AF3C7823867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66274F8C-51D5-4040-BE4D-DA1174AD991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14565" yWindow="-4635" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="-13200" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工体征表" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>李四</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
@@ -37,6 +34,10 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶明开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +425,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,12 +441,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -456,10 +457,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>50</v>

--- a/员工表.xlsx
+++ b/员工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66274F8C-51D5-4040-BE4D-DA1174AD991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED1ACD-C34B-4283-84F0-0C4A3286110A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="-13200" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-12945" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工体征表" sheetId="1" r:id="rId1"/>
@@ -15,29 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>王磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶明开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工号</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>王磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶明开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,47 +432,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>50</v>
       </c>
     </row>

--- a/员工表.xlsx
+++ b/员工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66274F8C-51D5-4040-BE4D-DA1174AD991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7C5B42-9BF4-468D-A4F4-752BA25F8531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="-13200" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-12945" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工体征表" sheetId="1" r:id="rId1"/>
@@ -15,37 +15,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>体检日期</t>
   </si>
   <si>
     <t>王磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶明开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>12022519860808003X</t>
+  </si>
+  <si>
+    <t>2025.11.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +63,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,12 +111,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,42 +509,43 @@
     <col min="1" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>